--- a/biology/Botanique/Pied_(botanique)/Pied_(botanique).xlsx
+++ b/biology/Botanique/Pied_(botanique)/Pied_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pied est, en botanique, une unité de plante, par exemple, un pied de fraisier, un pied de vigne, etc.
 Ce terme est utilisé pour compter le nombre de plantes dans un domaine botanique, ou bien pour décrire une plante en particulier.
